--- a/src/assets/template_vendita.xlsx
+++ b/src/assets/template_vendita.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sxrrow/Documents/angular/virsa_tunes/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8607D9D8-1DB2-C74F-A447-53B7CF9DE5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644E1AF-B03A-304F-A9D8-2B99D0FE21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46420" yWindow="2180" windowWidth="27640" windowHeight="16940" xr2:uid="{C97620A6-1B29-6941-A6A4-8BB1A3942B42}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{C97620A6-1B29-6941-A6A4-8BB1A3942B42}"/>
   </bookViews>
   <sheets>
     <sheet name="RICEVUTA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RICEVUTA!$B$1:$H$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -634,56 +637,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,20 +654,70 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,10 +1041,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECF2489-5478-8140-A87A-51183E96F4C3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B1:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,14 +1062,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -1075,32 +1081,32 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1109,13 +1115,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -1128,55 +1134,55 @@
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -1188,25 +1194,25 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1220,13 +1226,13 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
@@ -1238,13 +1244,13 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
@@ -1256,13 +1262,13 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
@@ -1274,13 +1280,13 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
@@ -1292,47 +1298,47 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="43" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="G31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="G32" s="18" t="s">
         <v>26</v>
       </c>
@@ -1341,36 +1347,36 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="39" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="22"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="37" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
@@ -1382,29 +1388,35 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
@@ -1417,17 +1429,12 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="B38:H38"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B39" r:id="rId1" xr:uid="{B14D397C-EEFC-254D-A391-B35A63C2A6E2}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{0B025215-EB74-4C46-8815-0A9686EA83FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/assets/template_vendita.xlsx
+++ b/src/assets/template_vendita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sxrrow/Documents/angular/virsa_tunes/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644E1AF-B03A-304F-A9D8-2B99D0FE21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8138E-A58E-4949-AC1D-C10209800098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{C97620A6-1B29-6941-A6A4-8BB1A3942B42}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{C97620A6-1B29-6941-A6A4-8BB1A3942B42}"/>
   </bookViews>
   <sheets>
     <sheet name="RICEVUTA" sheetId="1" r:id="rId1"/>
@@ -654,6 +654,30 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,7 +694,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -684,7 +707,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -696,28 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,7 +1047,7 @@
   <dimension ref="B2:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B1:H53"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,14 +1062,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -1081,32 +1081,32 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1115,13 +1115,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -1134,55 +1134,55 @@
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -1307,38 +1307,38 @@
       <c r="H28" s="34"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="40" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="G31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
       <c r="G32" s="18" t="s">
         <v>26</v>
       </c>
@@ -1347,36 +1347,36 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="50" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="50"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="22"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="48" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
@@ -1388,35 +1388,29 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
@@ -1429,6 +1423,12 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="B38:H38"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B39" r:id="rId1" xr:uid="{B14D397C-EEFC-254D-A391-B35A63C2A6E2}"/>
